--- a/Curso Excel.xlsx
+++ b/Curso Excel.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Curso Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A49636-D8AF-48BE-BDB0-2485AD76A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="8_{F7A49636-D8AF-48BE-BDB0-2485AD76A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9AAFE82-CEDB-4B97-9EA1-F800B3E92B25}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{072263F0-9BC5-4A1F-AB46-46643D2FE7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha4" sheetId="4" r:id="rId2"/>
+    <sheet name="Compras" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alunos!$A$1:$D$14</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>NOME</t>
   </si>
@@ -160,13 +160,160 @@
   </si>
   <si>
     <t>COD</t>
+  </si>
+  <si>
+    <t>Luiza Rafhaela</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Ver Série</t>
+  </si>
+  <si>
+    <t>Karla Sued</t>
+  </si>
+  <si>
+    <t>Passear</t>
+  </si>
+  <si>
+    <t>Eliene Querendo</t>
+  </si>
+  <si>
+    <t>Feijoada</t>
+  </si>
+  <si>
+    <t>Contato com Natureza</t>
+  </si>
+  <si>
+    <t>OPERADORES</t>
+  </si>
+  <si>
+    <t>LÓGICOS</t>
+  </si>
+  <si>
+    <t>MATEMÁTICOS</t>
+  </si>
+  <si>
+    <t>FUNÇÕES</t>
+  </si>
+  <si>
+    <t>+ - * /</t>
+  </si>
+  <si>
+    <t>&gt;;&lt;;&gt;=;=;</t>
+  </si>
+  <si>
+    <t>SOMA;</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
+  <si>
+    <t>NÚMERO</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1234456556e</t>
+  </si>
+  <si>
+    <t>(88) 99605-9913</t>
+  </si>
+  <si>
+    <t>123.123.123-12</t>
+  </si>
+  <si>
+    <t>DIFERENTE (&lt;&gt;)</t>
+  </si>
+  <si>
+    <t>PRODUTO</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>QTD</t>
+  </si>
+  <si>
+    <t>PREÇO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>FRALDA</t>
+  </si>
+  <si>
+    <t>FEIJÃO</t>
+  </si>
+  <si>
+    <t>AÇUCAR</t>
+  </si>
+  <si>
+    <t>ARROZ</t>
+  </si>
+  <si>
+    <t>MIOJO</t>
+  </si>
+  <si>
+    <t>CAFÉ</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>LEITE NINHO</t>
+  </si>
+  <si>
+    <t>BULACHA</t>
+  </si>
+  <si>
+    <t>REQUEIJÃO LIGHT</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +335,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +362,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,10 +417,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -251,6 +469,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,17 +795,18 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -780,6 +1003,48 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -792,12 +1057,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDE889-A6B8-46F4-B21F-D98B0F8BAFFF}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1796875" customWidth="1"/>
+    <col min="18" max="18" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <f>C2*D2</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>70</v>
+      </c>
+      <c r="J2" s="6">
+        <v>150</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="b">
+        <f>I2&lt;&gt;J2</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <f>I2&gt;J2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f>I2&lt;J2</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="11">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="9">
+        <f>I2+J2</f>
+        <v>220</v>
+      </c>
+      <c r="J4" s="9">
+        <f>I2*J2</f>
+        <v>10500</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5.99</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>29.950000000000003</v>
+      </c>
+      <c r="I5">
+        <f>SUM(I2,J2)</f>
+        <v>220</v>
+      </c>
+      <c r="J5">
+        <f>PRODUCT(I2,J2)</f>
+        <v>10500</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>123</v>
+      </c>
+      <c r="I10">
+        <v>123</v>
+      </c>
+      <c r="J10">
+        <v>213</v>
+      </c>
+      <c r="K10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12">
+        <v>9.99</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="14">
+        <f>SUM(C2:C11)</f>
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="15">
+        <f>SUM(E2:E11)</f>
+        <v>560.16000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="15">
+        <f>E12/C12</f>
+        <v>9.0348387096774214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Curso Excel.xlsx
+++ b/Curso Excel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Curso Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="8_{F7A49636-D8AF-48BE-BDB0-2485AD76A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9AAFE82-CEDB-4B97-9EA1-F800B3E92B25}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="8_{F7A49636-D8AF-48BE-BDB0-2485AD76A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C3CD9C-7A53-4E64-8984-261202E02DEA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{072263F0-9BC5-4A1F-AB46-46643D2FE7AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{072263F0-9BC5-4A1F-AB46-46643D2FE7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" r:id="rId1"/>
     <sheet name="Compras" sheetId="4" r:id="rId2"/>
+    <sheet name="Média" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alunos!$A$1:$D$14</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t>NOME</t>
   </si>
@@ -304,6 +305,42 @@
   </si>
   <si>
     <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>IDADE</t>
+  </si>
+  <si>
+    <t>=SE(C2&gt;17;"Maior de idade";"Menor de Idade")</t>
+  </si>
+  <si>
+    <t>=SE(C2&gt;17;"✅";"❌")</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>NOTA1</t>
+  </si>
+  <si>
+    <t>NOTA2</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>=ALEATÓRIOENTRE(1;100)/10</t>
+  </si>
+  <si>
+    <t>=ALEATÓRIOENTRE(1;1000)</t>
+  </si>
+  <si>
+    <t>TOTAL APROVADOS</t>
+  </si>
+  <si>
+    <t>=CONT.SE(Tabela1[STATUS];"APROVADO")</t>
   </si>
 </sst>
 </file>
@@ -352,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,8 +426,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -413,11 +456,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -454,11 +510,39 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -471,8 +555,92 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1244600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Cabeçalho Do Banner Do Conceito De Espaços Inteligentes Ilustração do ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE195B7A-237F-D645-95BB-A36B3B0CCA55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4451350" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{378B1FA3-C01A-48D8-80B3-80DFA3D55437}" name="Tabela1" displayName="Tabela1" ref="A2:E20" totalsRowCount="1">
+  <autoFilter ref="A2:E19" xr:uid="{378B1FA3-C01A-48D8-80B3-80DFA3D55437}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8BC46A91-EAC1-4940-B246-0FB9767C9B31}" name="NOME"/>
+    <tableColumn id="2" xr3:uid="{35910553-8DB8-4285-9D32-81629B3E57FE}" name="NOTA1" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6F41EB5E-2C6B-4BAF-BEF8-0AC53BECBA07}" name="NOTA2"/>
+    <tableColumn id="4" xr3:uid="{915A927B-1D28-4E0C-A9FF-253453F8E0EC}" name="MÉDIA" dataDxfId="5" totalsRowDxfId="1">
+      <calculatedColumnFormula>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{746364B3-6844-40BF-AEC1-4B9DB80E8FAD}" name="STATUS" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,8 +966,8 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1062,7 +1230,9 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1101,14 +1271,14 @@
         <v>70</v>
       </c>
       <c r="C2" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" s="12">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E2" s="13">
         <f>C2*D2</f>
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="I2" s="6">
         <v>70</v>
@@ -1231,14 +1401,14 @@
         <v>74</v>
       </c>
       <c r="C6" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1370,14 +1540,14 @@
       </c>
       <c r="C12" s="14">
         <f>SUM(C2:C11)</f>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="15">
         <f>SUM(E2:E11)</f>
-        <v>560.16000000000008</v>
+        <v>918.16000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1386,11 +1556,434 @@
       </c>
       <c r="E14" s="15">
         <f>E12/C12</f>
-        <v>9.0348387096774214</v>
+        <v>12.242133333333335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6EF0DC-0B4F-46BB-A36D-0E13943ED0E3}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="118" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>8.5</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="16">
+        <v>10</v>
+      </c>
+      <c r="J3" s="17" t="str">
+        <f>IF(H3&gt;17,"Maior de idade","Menor de Idade")</f>
+        <v>Menor de Idade</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>7.5</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>9.5</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(H3&gt;17,"✅","❌")</f>
+        <v>❌</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>8.4</v>
+      </c>
+      <c r="C6">
+        <v>7.1</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>7.75</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+      <c r="G6">
+        <f ca="1">RANDBETWEEN(1,1000)</f>
+        <v>268</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>3.6</v>
+      </c>
+      <c r="C7">
+        <v>6.9</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>5.25</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>REPROVADO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>9</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="19">
+        <f>COUNTIF(Tabela1[STATUS],"APROVADO")</f>
+        <v>11</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>8.5</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>2.6</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>4.8</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>REPROVADO</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>7.5</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>7.75</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>1.8</v>
+      </c>
+      <c r="C12">
+        <v>5.5</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>3.65</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>REPROVADO</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>1.2</v>
+      </c>
+      <c r="C13">
+        <v>9.5</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>5.35</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>REPROVADO</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>9.6</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>7.3</v>
+      </c>
+      <c r="C15">
+        <v>8.5</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>7.9</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C16">
+        <v>8.5</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>8.9</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3.4</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>REPROVADO</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>6.5</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>REPROVADO</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</f>
+        <v>7.5</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:E19">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"REPROVADO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Curso Excel.xlsx
+++ b/Curso Excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Curso Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="8_{F7A49636-D8AF-48BE-BDB0-2485AD76A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C3CD9C-7A53-4E64-8984-261202E02DEA}"/>
+  <xr:revisionPtr revIDLastSave="581" documentId="8_{F7A49636-D8AF-48BE-BDB0-2485AD76A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70626CCF-87B3-4438-8AD3-1142030E8496}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{072263F0-9BC5-4A1F-AB46-46643D2FE7AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{072263F0-9BC5-4A1F-AB46-46643D2FE7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" r:id="rId1"/>
     <sheet name="Compras" sheetId="4" r:id="rId2"/>
     <sheet name="Média" sheetId="5" r:id="rId3"/>
+    <sheet name="Frequência" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alunos!$A$1:$D$14</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="130">
   <si>
     <t>NOME</t>
   </si>
@@ -341,6 +342,96 @@
   </si>
   <si>
     <t>=CONT.SE(Tabela1[STATUS];"APROVADO")</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>ANA PAULA ADELINO DA SILVA DE FREITA</t>
+  </si>
+  <si>
+    <t>CARLOS EMANUEL DE OLIVEIRA COSTA</t>
+  </si>
+  <si>
+    <t>CICERO ERNESTO DA SILVA FILHO</t>
+  </si>
+  <si>
+    <t>ELIENE QUERENDO DA SILVA</t>
+  </si>
+  <si>
+    <t>HILBERLANDIO FERREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>KARLA SUED CHAVES BEZERRA</t>
+  </si>
+  <si>
+    <t>LUIZA RAFHAELA DE OLIVEIRA MARQUES</t>
+  </si>
+  <si>
+    <t>MAELI BEZERRA DA SILVA</t>
+  </si>
+  <si>
+    <t>MAIZA SOUZA DE SENA</t>
+  </si>
+  <si>
+    <t>MARIA ALESANDRA FERREIRA</t>
+  </si>
+  <si>
+    <t>MAURICIO GOMES DE SOUZA</t>
+  </si>
+  <si>
+    <t>TANIA NOGUEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>TAYNA DA SILVA GOMES</t>
+  </si>
+  <si>
+    <t>WELLINGTON ALVES TEIXEIRA</t>
+  </si>
+  <si>
+    <t>MARIA TAMIRES BENEDITO DA SILVA</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>=SE([@[(%)]]&gt;=75%;"APROVADO";"REPROVADO")</t>
+  </si>
+  <si>
+    <t>FREQUÊNCIA CURSO EXCEL</t>
   </si>
 </sst>
 </file>
@@ -350,7 +441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,8 +479,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,26 +617,205 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -630,16 +914,45 @@
   <autoFilter ref="A2:E19" xr:uid="{378B1FA3-C01A-48D8-80B3-80DFA3D55437}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8BC46A91-EAC1-4940-B246-0FB9767C9B31}" name="NOME"/>
-    <tableColumn id="2" xr3:uid="{35910553-8DB8-4285-9D32-81629B3E57FE}" name="NOTA1" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{35910553-8DB8-4285-9D32-81629B3E57FE}" name="NOTA1" dataDxfId="32" totalsRowDxfId="31"/>
     <tableColumn id="3" xr3:uid="{6F41EB5E-2C6B-4BAF-BEF8-0AC53BECBA07}" name="NOTA2"/>
-    <tableColumn id="4" xr3:uid="{915A927B-1D28-4E0C-A9FF-253453F8E0EC}" name="MÉDIA" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="4" xr3:uid="{915A927B-1D28-4E0C-A9FF-253453F8E0EC}" name="MÉDIA" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{746364B3-6844-40BF-AEC1-4B9DB80E8FAD}" name="STATUS" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="5" xr3:uid="{746364B3-6844-40BF-AEC1-4B9DB80E8FAD}" name="STATUS" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{578751AD-5163-414F-928F-8426127C7E81}" name="Tabela2" displayName="Tabela2" ref="B4:O19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="17">
+  <autoFilter ref="B4:O19" xr:uid="{578751AD-5163-414F-928F-8426127C7E81}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{81539F35-3EFE-4115-9C91-05B818B0803B}" name="NOME" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{5047796E-9CBC-450E-AAB1-18767419D262}" name="18" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{CC3A07D0-8D78-4B75-B658-69F530C3776E}" name="19" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{3B26A06A-E348-41AC-836D-C0078EF51D1B}" name="20" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{FC3D832D-9A83-4932-AE5D-2E88539491FE}" name="21" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{0A576BD7-C245-4480-8639-0055D233A413}" name="22" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{F34BC2A3-838A-470D-AF12-E97D741F5642}" name="25" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{2846D5E7-95BD-4C59-81C5-72CCFB4E01FB}" name="26" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{B3A04DD1-8D69-4C88-90F6-89B3424D14F9}" name="27" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{D8A1B7FE-C618-4232-894B-118FCDFF5F31}" name="28" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{28D09B5A-3534-47D0-9F64-18CA3C686138}" name="29" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{CC2C5DD3-BAED-468F-9767-4A2058D2A2A8}" name="TOTAL" dataDxfId="10">
+      <calculatedColumnFormula>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{F1DF6435-D420-45D9-B728-8C7BF0BA1B99}" name="(%)" dataDxfId="9">
+      <calculatedColumnFormula>Tabela2[[#This Row],[TOTAL]]/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{304E2288-9AC3-4FE6-A7F9-806D29FC117E}" name="STATUS" dataDxfId="8">
+      <calculatedColumnFormula>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -965,9 +1278,9 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1570,9 +1883,9 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1705,7 +2018,7 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>268</v>
+        <v>784</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>97</v>
@@ -1751,7 +2064,7 @@
       <c r="G8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <f>COUNTIF(Tabela1[STATUS],"APROVADO")</f>
         <v>11</v>
       </c>
@@ -1968,14 +2281,9 @@
         <v>APROVADO</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"REPROVADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1986,4 +2294,863 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DBC0D3-9450-41EF-B970-A36170085D20}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:Q19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.08984375" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>10</v>
+      </c>
+      <c r="N5" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>5</v>
+      </c>
+      <c r="N6" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>REPROVADO</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>10</v>
+      </c>
+      <c r="N7" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+      <c r="Q7" t="b">
+        <f>4&gt;3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>8</v>
+      </c>
+      <c r="N8" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+      <c r="Q8" t="b">
+        <f>10=10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>8</v>
+      </c>
+      <c r="N9" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+      <c r="Q9" t="b">
+        <f>20&lt;&gt;30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>7</v>
+      </c>
+      <c r="N10" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="O10" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>REPROVADO</v>
+      </c>
+      <c r="Q10" t="b">
+        <f>3&lt;&gt;3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>9</v>
+      </c>
+      <c r="N11" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="O11" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>9</v>
+      </c>
+      <c r="N12" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="O12" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>10</v>
+      </c>
+      <c r="N13" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>10</v>
+      </c>
+      <c r="N14" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>8</v>
+      </c>
+      <c r="N15" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>10</v>
+      </c>
+      <c r="N16" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>7</v>
+      </c>
+      <c r="N17" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="O17" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>REPROVADO</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>8</v>
+      </c>
+      <c r="N18" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="O18" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="19">
+        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <v>10</v>
+      </c>
+      <c r="N19" s="22">
+        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="20" t="str">
+        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:L19">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N19">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0ECC76C-35FE-4083-98A6-F2A0432E8887}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O19">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"REPROVADO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0ECC76C-35FE-4083-98A6-F2A0432E8887}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N5:N19</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Curso Excel.xlsx
+++ b/Curso Excel.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Curso Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="581" documentId="8_{F7A49636-D8AF-48BE-BDB0-2485AD76A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70626CCF-87B3-4438-8AD3-1142030E8496}"/>
+  <xr:revisionPtr revIDLastSave="833" documentId="8_{F7A49636-D8AF-48BE-BDB0-2485AD76A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{603D1FF6-18EC-4140-A896-F125B9E86EC9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{072263F0-9BC5-4A1F-AB46-46643D2FE7AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{072263F0-9BC5-4A1F-AB46-46643D2FE7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" r:id="rId1"/>
     <sheet name="Compras" sheetId="4" r:id="rId2"/>
     <sheet name="Média" sheetId="5" r:id="rId3"/>
-    <sheet name="Frequência" sheetId="6" r:id="rId4"/>
+    <sheet name="Frequência" sheetId="7" r:id="rId4"/>
+    <sheet name="Validação" sheetId="8" r:id="rId5"/>
+    <sheet name="Lista" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alunos!$A$1:$D$14</definedName>
+    <definedName name="ANIMES">Lista!$C$3:$C$6</definedName>
+    <definedName name="CATEGORIA">Lista!$B$2:$D$2</definedName>
+    <definedName name="FILMES">Lista!$B$3:$B$6</definedName>
+    <definedName name="NOVELAS">Lista!$D$3:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="149">
   <si>
     <t>NOME</t>
   </si>
@@ -432,6 +438,63 @@
   </si>
   <si>
     <t>FREQUÊNCIA CURSO EXCEL</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>TEN-002-42</t>
+  </si>
+  <si>
+    <t>FILMES</t>
+  </si>
+  <si>
+    <t>ANIMES</t>
+  </si>
+  <si>
+    <t>NOVELAS</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Senhor dos Anéis</t>
+  </si>
+  <si>
+    <t>Anaconda</t>
+  </si>
+  <si>
+    <t>Dragon Ball</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>Attack on Titan</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>A Usurpadora</t>
+  </si>
+  <si>
+    <t>O Clone</t>
+  </si>
+  <si>
+    <t>Salve Jorge</t>
+  </si>
+  <si>
+    <t>O Rico e Lázaro</t>
   </si>
 </sst>
 </file>
@@ -481,14 +544,14 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="24"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +600,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -578,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -633,101 +702,13 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -754,13 +735,19 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -788,6 +775,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -844,15 +840,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1244600</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -882,8 +878,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4451350" cy="1244600"/>
+          <a:off x="1" y="0"/>
+          <a:ext cx="3854898" cy="1244600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,12 +910,12 @@
   <autoFilter ref="A2:E19" xr:uid="{378B1FA3-C01A-48D8-80B3-80DFA3D55437}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8BC46A91-EAC1-4940-B246-0FB9767C9B31}" name="NOME"/>
-    <tableColumn id="2" xr3:uid="{35910553-8DB8-4285-9D32-81629B3E57FE}" name="NOTA1" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{35910553-8DB8-4285-9D32-81629B3E57FE}" name="NOTA1" dataDxfId="24" totalsRowDxfId="23"/>
     <tableColumn id="3" xr3:uid="{6F41EB5E-2C6B-4BAF-BEF8-0AC53BECBA07}" name="NOTA2"/>
-    <tableColumn id="4" xr3:uid="{915A927B-1D28-4E0C-A9FF-253453F8E0EC}" name="MÉDIA" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="4" xr3:uid="{915A927B-1D28-4E0C-A9FF-253453F8E0EC}" name="MÉDIA" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>AVERAGE(Tabela1[[#This Row],[NOTA1]],Tabela1[[#This Row],[NOTA2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{746364B3-6844-40BF-AEC1-4B9DB80E8FAD}" name="STATUS" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="5" xr3:uid="{746364B3-6844-40BF-AEC1-4B9DB80E8FAD}" name="STATUS" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[MÉDIA]]&gt;=7,"APROVADO","REPROVADO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -928,31 +924,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{578751AD-5163-414F-928F-8426127C7E81}" name="Tabela2" displayName="Tabela2" ref="B4:O19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3D666E3-2D6F-4678-8663-FD03D3CA9D2B}" name="Tabela23" displayName="Tabela23" ref="B4:O19" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B4:O19" xr:uid="{578751AD-5163-414F-928F-8426127C7E81}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{81539F35-3EFE-4115-9C91-05B818B0803B}" name="NOME" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{5047796E-9CBC-450E-AAB1-18767419D262}" name="18" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{CC3A07D0-8D78-4B75-B658-69F530C3776E}" name="19" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{3B26A06A-E348-41AC-836D-C0078EF51D1B}" name="20" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{FC3D832D-9A83-4932-AE5D-2E88539491FE}" name="21" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{0A576BD7-C245-4480-8639-0055D233A413}" name="22" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{F34BC2A3-838A-470D-AF12-E97D741F5642}" name="25" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{2846D5E7-95BD-4C59-81C5-72CCFB4E01FB}" name="26" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{B3A04DD1-8D69-4C88-90F6-89B3424D14F9}" name="27" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{D8A1B7FE-C618-4232-894B-118FCDFF5F31}" name="28" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{28D09B5A-3534-47D0-9F64-18CA3C686138}" name="29" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{CC2C5DD3-BAED-468F-9767-4A2058D2A2A8}" name="TOTAL" dataDxfId="10">
-      <calculatedColumnFormula>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{0B51D8BF-2D06-464F-B73C-DEBE31DA2047}" name="NOME" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E69E8F87-93BA-4777-9AE9-0F247A6C30C7}" name="18" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B797FE48-90EE-44C2-9367-93D158F46F33}" name="19" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F187003F-A3FE-40EF-9B55-479885F36C1B}" name="20" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{A62F131D-D43D-4F10-89A6-380041E0CC32}" name="21" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{254F600D-FE1E-4FB3-A4A8-B5FA5413CDC9}" name="22" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{B7F2D9E1-407B-4C97-A1C4-5AAF877AEDD2}" name="25" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{0726F407-FD22-49B2-AC78-3A9E188EC22C}" name="26" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{56583D14-491E-40FE-B134-518A9878C607}" name="27" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{93E9F261-A4D2-45B6-90C6-DF57CB95E462}" name="28" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{D8414EF6-8CDB-4CBE-A3F9-C8905674FA98}" name="29" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{17C26367-468E-4F37-950C-DAF05E1F181F}" name="TOTAL" dataDxfId="5">
+      <calculatedColumnFormula>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F1DF6435-D420-45D9-B728-8C7BF0BA1B99}" name="(%)" dataDxfId="9">
-      <calculatedColumnFormula>Tabela2[[#This Row],[TOTAL]]/10</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{6E1338A3-BE05-4E9E-B0AA-4E4027E3B261}" name="(%)" dataDxfId="4">
+      <calculatedColumnFormula>Tabela23[[#This Row],[TOTAL]]/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{304E2288-9AC3-4FE6-A7F9-806D29FC117E}" name="STATUS" dataDxfId="8">
-      <calculatedColumnFormula>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{A0D7A392-0CBB-49A0-B332-C266AFB33376}" name="STATUS" dataDxfId="3">
+      <calculatedColumnFormula>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E3D95268-5278-41DB-8EC7-09881B20985D}" name="Tabela4" displayName="Tabela4" ref="B2:F17" totalsRowShown="0">
+  <autoFilter ref="B2:F17" xr:uid="{E3D95268-5278-41DB-8EC7-09881B20985D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{ADDFCD3E-509F-4671-9FFD-C5D9785FEFA4}" name="COD"/>
+    <tableColumn id="2" xr3:uid="{9BC5761D-E574-48E6-864C-22E2C108CBC1}" name="DATA"/>
+    <tableColumn id="3" xr3:uid="{76580AA2-979E-46A8-89D5-647C0E8D8900}" name="CLIENTE"/>
+    <tableColumn id="4" xr3:uid="{88743BB9-2BA9-457F-8CF4-31A631D1F632}" name="CATEGORIA"/>
+    <tableColumn id="5" xr3:uid="{0D8194E7-E5D7-4E98-B9C3-6CA105979581}" name="NOME"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1278,9 +1288,9 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="111" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1543,7 +1553,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1885,19 +1895,18 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView zoomScale="99" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.08984375" customWidth="1"/>
     <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="118" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
@@ -2018,7 +2027,7 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>784</v>
+        <v>66</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>97</v>
@@ -2283,7 +2292,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"REPROVADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2297,26 +2306,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DBC0D3-9450-41EF-B970-A36170085D20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3238BD-B4E1-4547-A83B-69D98BCDB649}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O2"/>
+    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.26953125" customWidth="1"/>
     <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" customWidth="1"/>
     <col min="14" max="14" width="22.08984375" customWidth="1"/>
     <col min="15" max="15" width="17.81640625" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>129</v>
       </c>
@@ -2413,15 +2424,15 @@
         <v>126</v>
       </c>
       <c r="M5" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>10</v>
       </c>
       <c r="N5" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>1</v>
       </c>
       <c r="O5" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -2463,15 +2474,15 @@
         <v>126</v>
       </c>
       <c r="M6" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>5</v>
       </c>
       <c r="N6" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>0.5</v>
       </c>
       <c r="O6" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>REPROVADO</v>
       </c>
     </row>
@@ -2510,15 +2521,15 @@
         <v>126</v>
       </c>
       <c r="M7" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>10</v>
       </c>
       <c r="N7" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>1</v>
       </c>
       <c r="O7" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
       <c r="Q7" t="b">
@@ -2561,15 +2572,15 @@
         <v>126</v>
       </c>
       <c r="M8" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>8</v>
       </c>
       <c r="N8" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>0.8</v>
       </c>
       <c r="O8" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
       <c r="Q8" t="b">
@@ -2612,15 +2623,15 @@
         <v>126</v>
       </c>
       <c r="M9" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>8</v>
       </c>
       <c r="N9" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>0.8</v>
       </c>
       <c r="O9" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
       <c r="Q9" t="b">
@@ -2663,15 +2674,15 @@
         <v>126</v>
       </c>
       <c r="M10" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>7</v>
       </c>
       <c r="N10" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>0.7</v>
       </c>
       <c r="O10" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>REPROVADO</v>
       </c>
       <c r="Q10" t="b">
@@ -2714,15 +2725,15 @@
         <v>126</v>
       </c>
       <c r="M11" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>9</v>
       </c>
       <c r="N11" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>0.9</v>
       </c>
       <c r="O11" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
@@ -2761,15 +2772,15 @@
         <v>126</v>
       </c>
       <c r="M12" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>9</v>
       </c>
       <c r="N12" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>0.9</v>
       </c>
       <c r="O12" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
@@ -2808,15 +2819,15 @@
         <v>126</v>
       </c>
       <c r="M13" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>10</v>
       </c>
       <c r="N13" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>1</v>
       </c>
       <c r="O13" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
@@ -2855,15 +2866,15 @@
         <v>126</v>
       </c>
       <c r="M14" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>10</v>
       </c>
       <c r="N14" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>1</v>
       </c>
       <c r="O14" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
@@ -2902,15 +2913,15 @@
         <v>126</v>
       </c>
       <c r="M15" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>8</v>
       </c>
       <c r="N15" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>0.8</v>
       </c>
       <c r="O15" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
@@ -2949,15 +2960,15 @@
         <v>126</v>
       </c>
       <c r="M16" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>10</v>
       </c>
       <c r="N16" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>1</v>
       </c>
       <c r="O16" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
@@ -2996,15 +3007,15 @@
         <v>126</v>
       </c>
       <c r="M17" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>7</v>
       </c>
       <c r="N17" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>0.7</v>
       </c>
       <c r="O17" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>REPROVADO</v>
       </c>
     </row>
@@ -3043,15 +3054,15 @@
         <v>127</v>
       </c>
       <c r="M18" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>8</v>
       </c>
       <c r="N18" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>0.8</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
@@ -3090,15 +3101,15 @@
         <v>126</v>
       </c>
       <c r="M19" s="19">
-        <f>COUNTIF(Tabela2[[#This Row],[18]:[29]],"P")</f>
+        <f>COUNTIF(Tabela23[[#This Row],[18]:[29]],"P")</f>
         <v>10</v>
       </c>
       <c r="N19" s="22">
-        <f>Tabela2[[#This Row],[TOTAL]]/10</f>
+        <f>Tabela23[[#This Row],[TOTAL]]/10</f>
         <v>1</v>
       </c>
       <c r="O19" s="20" t="str">
-        <f>IF(Tabela2[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
+        <f>IF(Tabela23[[#This Row],[(%)]]&gt;=75%,"APROVADO","REPROVADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
@@ -3107,12 +3118,12 @@
     <mergeCell ref="B2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:L19">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N19">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3120,18 +3131,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0ECC76C-35FE-4083-98A6-F2A0432E8887}</x14:id>
+          <x14:id>{28FF6C99-1389-43D0-9A02-0194052EB968}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O19">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"REPROVADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -3139,7 +3150,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B0ECC76C-35FE-4083-98A6-F2A0432E8887}">
+          <x14:cfRule type="dataBar" id="{28FF6C99-1389-43D0-9A02-0194052EB968}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3153,4 +3164,344 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A666A32-1A5F-48DC-81EA-33F5535E546C}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:I22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="24">
+        <v>45890</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>45891</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="24">
+        <v>45891</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="24">
+        <v>45891</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24">
+        <v>45895</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="24">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="24">
+        <v>45897</v>
+      </c>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11" s="24">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="24">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="24">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="24">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="24">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B17" xr:uid="{1688FF6C-4D0B-41C1-899C-C991C91E3692}">
+      <formula1>1</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17" xr:uid="{51E19445-33C3-4502-BD79-8D44B65C6BA2}">
+      <formula1>TODAY()+1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{9EE2E104-EB39-4202-936B-BAAB86825D2A}">
+      <formula1>CATEGORIA</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F17" xr:uid="{BC531B0A-3CBD-44E2-A7CB-4171A10E34DE}">
+      <formula1>INDIRECT($E3)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBD5ED5A-8CD5-4378-873A-46CB64A625E8}">
+          <x14:formula1>
+            <xm:f>Alunos!$B$2:$B$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A553A21-DF93-4F4A-9A4B-7BBB0CB99EF5}">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0055E476-C45E-41A3-A81A-198974FEDB94}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>